--- a/data/trans_orig/dukeCONF-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,56</t>
+          <t>28,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,16</t>
+          <t>28,29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,32</t>
+          <t>28,47</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,05; 29,1</t>
+          <t>28,21; 29,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,81; 28,54</t>
+          <t>27,96; 28,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,02; 28,62</t>
+          <t>28,19; 28,78</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,79</t>
+          <t>31,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,52</t>
+          <t>30,76</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,66</t>
+          <t>31,04</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,53; 31,14</t>
+          <t>30,76; 32,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,27; 30,72</t>
+          <t>30,46; 31,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,48; 30,86</t>
+          <t>30,72; 31,86</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,84</t>
+          <t>31,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,66</t>
+          <t>31,67</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,03; 31,83</t>
+          <t>30,95; 31,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,52; 32,09</t>
+          <t>31,56; 32,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,39; 31,87</t>
+          <t>31,38; 31,89</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,57</t>
+          <t>30,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,25</t>
+          <t>30,44</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>30,69</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,36; 30,84</t>
+          <t>30,57; 31,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,08; 30,42</t>
+          <t>30,23; 30,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,26; 30,57</t>
+          <t>30,47; 31,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/dukeCONF-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Estudios-trans_orig.xlsx
@@ -724,27 +724,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,25; 28,97</t>
+          <t>28,26; 28,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,33; 30,03</t>
+          <t>29,33; 30,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,57; 29,35</t>
+          <t>28,64; 29,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 29,26</t>
+          <t>28,13; 29,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,56; 28,23</t>
+          <t>27,6; 28,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,22 +754,22 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,86; 28,59</t>
+          <t>27,81; 28,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,96; 28,66</t>
+          <t>27,93; 28,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,96; 28,47</t>
+          <t>27,99; 28,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,27; 29,72</t>
+          <t>29,26; 29,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,19; 28,78</t>
+          <t>28,18; 28,79</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,46; 30,92</t>
+          <t>30,45; 30,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,62; 31,05</t>
+          <t>30,63; 31,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,43; 29,85</t>
+          <t>29,41; 29,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,76; 32,55</t>
+          <t>30,78; 32,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,32 +894,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,47; 29,88</t>
+          <t>29,49; 29,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,46; 31,21</t>
+          <t>30,48; 31,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,24; 30,56</t>
+          <t>30,23; 30,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,36; 30,69</t>
+          <t>30,37; 30,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 29,79</t>
+          <t>29,52; 29,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 31,86</t>
+          <t>30,73; 31,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,3; 31,15</t>
+          <t>30,34; 31,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 31,73</t>
+          <t>30,8; 31,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,44; 31,16</t>
+          <t>30,42; 31,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,95; 31,85</t>
+          <t>31,02; 31,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,24; 31,13</t>
+          <t>30,23; 31,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,14; 31,87</t>
+          <t>31,1; 31,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,4; 31,14</t>
+          <t>30,43; 31,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,56; 32,13</t>
+          <t>31,55; 32,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,43; 31,03</t>
+          <t>30,43; 31,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,15; 31,73</t>
+          <t>31,12; 31,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,51; 31,02</t>
+          <t>30,51; 31,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,38; 31,89</t>
+          <t>31,41; 31,91</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,88; 30,24</t>
+          <t>29,87; 30,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,4; 30,76</t>
+          <t>30,42; 30,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,5; 29,82</t>
+          <t>29,52; 29,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,57; 31,98</t>
+          <t>30,56; 31,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,14; 29,53</t>
+          <t>29,14; 29,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,28; 29,59</t>
+          <t>29,28; 29,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,23; 30,79</t>
+          <t>30,25; 30,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,55; 29,82</t>
+          <t>29,57; 29,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,18; 30,43</t>
+          <t>30,19; 30,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,45; 29,67</t>
+          <t>29,44; 29,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,18</t>
+          <t>30,45; 31,28</t>
         </is>
       </c>
     </row>
